--- a/biology/Zoologie/Cypraeidae/Cypraeidae.xlsx
+++ b/biology/Zoologie/Cypraeidae/Cypraeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porcelaines
 Les Cypraeidae sont une famille de mollusques gastéropodes, de l'ordre des Littorinimorpha. La plupart sont appelés porcelaines dans le langage courant.
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Cypraeidae est une des plus vastes familles de gastéropodes (elle comprend 48 genres et plus de 250 espèces[1]), une des plus célèbres aussi puisque c’est celle des fameuses « porcelaines ». Les porcelaines sont des « coquillages » (mollusques gastéropodes marins proches des escargots) pourvus d'une coquille enroulée en spirale. La coquille a généralement une forme de demi-coque ovoïde avec ou sans bords calleux. Sur sa face inférieure se trouve une ouverture étroite aux lèvres denticulées ; elle forme un « S » marqué chez les jeunes spécimens, qui tend vers la verticale avec l'âge. Chez les Cypraeidae, la spirale est uniquement interne et donc invisible de l'extérieur, et l'aspect visuel semble celui d'un casque allongé et presque parfaitement symétrique, dont la face inférieure est plate et presque fermée, laissant seulement cette ouverture étroite et allongée généralement dentelée. Cependant, l'examen radiographique des coquilles ou la simple découverte de coquilles brisées permet de constater que l'intérieur est bel et bien en forme de spirale enroulée. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cypraeidae est une des plus vastes familles de gastéropodes (elle comprend 48 genres et plus de 250 espèces), une des plus célèbres aussi puisque c’est celle des fameuses « porcelaines ». Les porcelaines sont des « coquillages » (mollusques gastéropodes marins proches des escargots) pourvus d'une coquille enroulée en spirale. La coquille a généralement une forme de demi-coque ovoïde avec ou sans bords calleux. Sur sa face inférieure se trouve une ouverture étroite aux lèvres denticulées ; elle forme un « S » marqué chez les jeunes spécimens, qui tend vers la verticale avec l'âge. Chez les Cypraeidae, la spirale est uniquement interne et donc invisible de l'extérieur, et l'aspect visuel semble celui d'un casque allongé et presque parfaitement symétrique, dont la face inférieure est plate et presque fermée, laissant seulement cette ouverture étroite et allongée généralement dentelée. Cependant, l'examen radiographique des coquilles ou la simple découverte de coquilles brisées permet de constater que l'intérieur est bel et bien en forme de spirale enroulée. 
 Chez les spécimens vivants, un manteau de chair plus ou moins colorée recouvre en fait cette coquille, souvent hérissé d'organes sensoriels. C'est ce manteau qui permet à la coquille de rester « propre » et luisante et qui empêche sa colonisation par des algues. Ce manteau se rétracte cependant en cas de menace, laissant voir la coquille. 
-La majorité des espèces se trouve dans les mers chaudes, généralement à faible profondeur[2]. Elles peuvent être herbivores, mais la majorité, carnivore, se nourrit d’anémones, d’éponges, d’ascidies, de cadavres de mollusques ou d’œufs de gastéropodes[3].
+La majorité des espèces se trouve dans les mers chaudes, généralement à faible profondeur. Elles peuvent être herbivores, mais la majorité, carnivore, se nourrit d’anémones, d’éponges, d’ascidies, de cadavres de mollusques ou d’œufs de gastéropodes.
 			Porcelaine érodée (Naria erosa), partiellement couverte par son manteau.
 			Différentes espèces de porcelaines.
 			Radio de porcelaine.
@@ -550,12 +564,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation
-Certaines espèces sont aussi connues pour avoir servi de monnaie d'échange dans les sociétés primitives dans l'océan Indien et en en Chine environ 2100 ans av. J.-C. et ceci jusqu'à l'apparition des premières monnaies en bronze sous les Shang (1766-1122 av. J.-C.). C'est pourquoi de nombreux caractères chinois ayant un rapport avec l'argent contiennent le caractère qui représente ces coquillages[4]. L'espèce Monetaria moneta, nommée en référence à cet usage, est encore l'emblème bancaire des Maldives. 
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces sont aussi connues pour avoir servi de monnaie d'échange dans les sociétés primitives dans l'océan Indien et en en Chine environ 2100 ans av. J.-C. et ceci jusqu'à l'apparition des premières monnaies en bronze sous les Shang (1766-1122 av. J.-C.). C'est pourquoi de nombreux caractères chinois ayant un rapport avec l'argent contiennent le caractère qui représente ces coquillages. L'espèce Monetaria moneta, nommée en référence à cet usage, est encore l'emblème bancaire des Maldives. 
 De nos jours, ces coquillages aux belles coquilles luisantes sont surtout ramassés pour le commerce (pour les touristes ou les collectionneurs), ce qui fait peser une lourde menace sur certaines espèces aux effectifs fragiles. 
-Nom
-Ces coquillages ont été nommés porcellena en italien par Marco Polo qui en ramena de Chine, du fait de leur ressemblance — selon lui — avec une vulve de truie (porcella)[5],[6]. Le nom scientifique Cypraea reprend l'allusion de manière plus poétique, κύπρις (kupris) étant un autre nom de la déesse Aphrodite (Vénus, déesse de la sexualité). 
-La céramique chinoise appelée Porcelaine a ensuite été nommée en référence à ces coquillages à la coquille si fine, luisante et ornementée. 
 </t>
         </is>
       </c>
@@ -581,16 +597,94 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire humaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces coquillages ont été nommés porcellena en italien par Marco Polo qui en ramena de Chine, du fait de leur ressemblance — selon lui — avec une vulve de truie (porcella),. Le nom scientifique Cypraea reprend l'allusion de manière plus poétique, κύπρις (kupris) étant un autre nom de la déesse Aphrodite (Vénus, déesse de la sexualité). 
+La céramique chinoise appelée Porcelaine a ensuite été nommée en référence à ces coquillages à la coquille si fine, luisante et ornementée. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cypraeidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypraeidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Histoire scientifique
-Cette famille a été créée par Constantine Samuel Rafinesque (1783-1840) en 1815. Elle a été liée autrefois aux familles proches des Ovulidae et des Triviidae qui sont parfois encore également dénommés « porcelaines ».
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Histoire scientifique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été créée par Constantine Samuel Rafinesque (1783-1840) en 1815. Elle a été liée autrefois aux familles proches des Ovulidae et des Triviidae qui sont parfois encore également dénommés « porcelaines ».
 Plusieurs centaines d'espèces ont historiquement été attribuées aux genres Cypraea (pour les grandes espèces) et Monetaria (les petites), mais les travaux des biologistes modernes (notamment depuis l'entre-deux-guerres) ont permis de reclasser une bonne partie de ces espèces dans plusieurs dizaines de nouveaux genres. 
-Liste des genres
-Selon World Register of Marine Species                               (7 avril 2022)[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cypraeidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypraeidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 avril 2022) :
 sous-famille Cypraeinae Rafinesque, 1815
 tribu Cypraeiini Rafinesque, 1815
 genre Cypraea Linnaeus, 1758 -- 3 espèces
